--- a/Excel/Ex01.xlsx
+++ b/Excel/Ex01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis_f_de-freitas\Documents\Modelos Personalizados do Office\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis_f_de-freitas\Documents\GitHub\LuisFreitas_BD_Exemplos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{477ABF5B-171C-4423-9177-01C8E34B3D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6905BC-678C-4B61-B516-D2C6BC0E1B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EA35BAEF-DD8F-430E-B8A7-36F63141075C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>João da rocha</t>
+  </si>
+  <si>
+    <t>NORMALIZADO</t>
+  </si>
+  <si>
+    <t>Não normalizado</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -143,50 +149,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -229,14 +198,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -244,64 +235,34 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,172 +598,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FD5F88-77A8-4DAE-B2DB-51CD9E12B022}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="22" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="F2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="F5" s="10">
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="14" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L11" s="17"/>
+      <c r="E17" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="A3:B4"/>
+  <mergeCells count="20">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
